--- a/KODE/UT_4_frame_displ.xlsx
+++ b/KODE/UT_4_frame_displ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monar\MASTER_THESIS-1\KODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DF053-9427-4732-8D02-7C2D6626A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C70061-F017-49A3-A087-3B45B5161A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73984263-EBFF-4C51-B687-96649F738172}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6987" uniqueCount="6735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6987" uniqueCount="6736">
   <si>
     <t>Frame Id</t>
   </si>
@@ -20242,6 +20242,9 @@
   </si>
   <si>
     <t>3161.5755408037285</t>
+  </si>
+  <si>
+    <t>Frame Id cam</t>
   </si>
 </sst>
 </file>
@@ -20615,13 +20618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1983B666-0DA2-426D-A836-02788EE7EA0C}">
   <dimension ref="A1:N699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="19.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20642,7 +20645,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>6735</v>
       </c>
       <c r="I1" t="s">
         <v>2541</v>

--- a/KODE/UT_4_frame_displ.xlsx
+++ b/KODE/UT_4_frame_displ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monar\MASTER_THESIS-1\KODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C70061-F017-49A3-A087-3B45B5161A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152CF31-0956-4DEB-AA87-C39A31D17BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73984263-EBFF-4C51-B687-96649F738172}"/>
   </bookViews>
@@ -20619,7 +20619,7 @@
   <dimension ref="A1:N699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
